--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3148.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3148.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.255714402648185</v>
+        <v>0.9574000239372253</v>
       </c>
       <c r="B1">
-        <v>2.632065373320739</v>
+        <v>1.35305655002594</v>
       </c>
       <c r="C1">
-        <v>3.354749105309241</v>
+        <v>2.443425416946411</v>
       </c>
       <c r="D1">
-        <v>3.878661776418733</v>
+        <v>4.143021106719971</v>
       </c>
       <c r="E1">
-        <v>2.033942551196846</v>
+        <v>1.859736323356628</v>
       </c>
     </row>
   </sheetData>
